--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -77,7 +77,7 @@
     <t>Observation Category Codes#exam</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/functional-score-codes-vs (required)</t>
+    <t>http://tecnomod-um.org/ValueSet/functional-score-codes-vs (required)</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ, Attachmentĵ, Referenceĵ</t>
@@ -92,7 +92,7 @@
     <t>Observation Category Codes#procedure</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/timing-metric-codes-vs (required)</t>
+    <t>http://tecnomod-um.org/ValueSet/timing-metric-codes-vs (required)</t>
   </si>
   <si>
     <t>Quantityĵ</t>
